--- a/program_specialties/program_specialties_2016.xlsx
+++ b/program_specialties/program_specialties_2016.xlsx
@@ -3249,7 +3249,7 @@
   <dimension ref="A1:AX191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
